--- a/Ideas.xlsx
+++ b/Ideas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jk3943\Documents\Django-MyLanguageWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1E96D1-766E-4DB7-AB19-68E6267F9AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BE6C08-7CED-4084-BBA0-6CDCF91E3AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24465" yWindow="10485" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29205" yWindow="9525" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Greetings/Most common phrases</t>
   </si>
@@ -39,7 +39,28 @@
     <t>Polish Courses in this order:</t>
   </si>
   <si>
-    <t>Personal pronouns</t>
+    <t>Personal Pronouns 1 (just nominative case)</t>
+  </si>
+  <si>
+    <t>Nominative</t>
+  </si>
+  <si>
+    <t>Accusative</t>
+  </si>
+  <si>
+    <t>Genitive</t>
+  </si>
+  <si>
+    <t>Dative</t>
+  </si>
+  <si>
+    <t>Instrumental</t>
+  </si>
+  <si>
+    <t>Locative</t>
+  </si>
+  <si>
+    <t>Vocative</t>
   </si>
 </sst>
 </file>
@@ -357,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,6 +410,41 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
